--- a/data-raw/logical_check_list.xlsx
+++ b/data-raw/logical_check_list.xlsx
@@ -1,34 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>check_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>check_to_perform</t>
+  </si>
+  <si>
+    <t>columns_to_clean</t>
+  </si>
+  <si>
+    <t>check_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary_livelihood is rented but expenses less than 500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary_livelihood == "employment" &amp; tot_expenses &lt; 500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary_livelihood, tot_expenses</t>
+  </si>
+  <si>
+    <t>check_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acces water and tank emptied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">access_water_enough == "totally_insufficient" &amp; tank_emptied == "about_half"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">access_water_enough, tank_emptied</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -42,19 +80,19 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -62,11 +100,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -112,13 +155,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -146,13 +189,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -349,81 +392,275 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.28125"/>
+    <col customWidth="1" min="2" max="2" width="73.8515625"/>
+    <col customWidth="1" min="3" max="4" width="77.8515625"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>check_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>check_to_perform</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>columns_to_clean</t>
-        </is>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>check_exp</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>primary_livelihood is rented but expenses less than 500000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>primary_livelihood == "employment" &amp; tot_expenses &lt; 500000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>primary_livelihood, tot_expenses</t>
-        </is>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>check_2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>acces water and tank emptied</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>access_water_enough == "totally_insufficient" &amp; tank_emptied == "about_half"</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>access_water_enough, tank_emptied</t>
-        </is>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>